--- a/scimagojr/scimagojr_2010.xlsx
+++ b/scimagojr/scimagojr_2010.xlsx
@@ -332,15 +332,15 @@
     <t>Qatar</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -389,15 +389,15 @@
     <t>Palestine</t>
   </si>
   <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
@@ -407,12 +407,12 @@
     <t>Moldova</t>
   </si>
   <si>
+    <t>Zambia</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -422,21 +422,21 @@
     <t>Bolivia</t>
   </si>
   <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -446,21 +446,21 @@
     <t>New Caledonia</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>Gambia</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Liechtenstein</t>
@@ -503,12 +503,12 @@
     <t>El Salvador</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -569,18 +569,18 @@
     <t>Guinea</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
@@ -596,30 +596,30 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
     <t>Bahamas</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
@@ -641,124 +641,124 @@
     <t>Suriname</t>
   </si>
   <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>San Marino</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Aruba</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Cook Islands</t>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
     <t>Western Sahara</t>
   </si>
   <si>
-    <t>Vatican City State</t>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
   </si>
   <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Pitcairn</t>
   </si>
   <si>
     <t>Anguilla</t>
@@ -905,22 +905,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>603364</v>
+        <v>608743</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>519560</v>
+        <v>520789</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>20450498</v>
+        <v>23828177</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8695661</v>
+        <v>9715872</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>33.89</v>
+        <v>39.14</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -934,22 +934,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>344328</v>
+        <v>339704</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>335611</v>
+        <v>335634</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5062087</v>
+        <v>5794781</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2737842</v>
+        <v>3104233</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.7</v>
+        <v>17.06</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -963,22 +963,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>174950</v>
+        <v>176088</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>142020</v>
+        <v>142531</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5718570</v>
+        <v>6664758</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1243375</v>
+        <v>1373551</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>32.69</v>
+        <v>37.85</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -992,22 +992,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>151718</v>
+        <v>152270</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>137390</v>
+        <v>138181</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4689760</v>
+        <v>5400084</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1083429</v>
+        <v>1178720</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>30.91</v>
+        <v>35.46</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1021,22 +1021,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>129933</v>
+        <v>129973</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>123443</v>
+        <v>123814</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2638028</v>
+        <v>3021190</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>633026</v>
+        <v>687258</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>20.3</v>
+        <v>23.24</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1050,22 +1050,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>107953</v>
+        <v>107947</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>98701</v>
+        <v>98868</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3176757</v>
+        <v>3652243</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>627546</v>
+        <v>679010</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>29.43</v>
+        <v>33.83</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1079,22 +1079,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>91680</v>
+        <v>92056</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>80978</v>
+        <v>81210</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3141341</v>
+        <v>3674902</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>510122</v>
+        <v>563988</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>34.26</v>
+        <v>39.92</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1108,22 +1108,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>86807</v>
+        <v>86775</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>78054</v>
+        <v>78204</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2592249</v>
+        <v>2973981</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>569987</v>
+        <v>623090</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>29.86</v>
+        <v>34.27</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1137,22 +1137,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>81553</v>
+        <v>81470</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>76064</v>
+        <v>76149</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1437368</v>
+        <v>1696723</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>476561</v>
+        <v>564834</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>17.62</v>
+        <v>20.83</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1166,22 +1166,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>73959</v>
+        <v>73912</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>67383</v>
+        <v>67527</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2088206</v>
+        <v>2403856</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>427674</v>
+        <v>465360</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>28.23</v>
+        <v>32.52</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1195,22 +1195,22 @@
         <v>23</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>70444</v>
+        <v>70780</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>61258</v>
+        <v>61480</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2332961</v>
+        <v>2730556</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>451951</v>
+        <v>497964</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>33.12</v>
+        <v>38.58</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1224,22 +1224,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>61372</v>
+        <v>61187</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>59297</v>
+        <v>59358</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1388431</v>
+        <v>1587724</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>248724</v>
+        <v>266481</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.62</v>
+        <v>25.95</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1253,22 +1253,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>51195</v>
+        <v>51201</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>48570</v>
+        <v>48620</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>930263</v>
+        <v>1079878</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>317469</v>
+        <v>353670</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>18.17</v>
+        <v>21.09</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1282,22 +1282,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>50867</v>
+        <v>50943</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>44661</v>
+        <v>44778</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2160813</v>
+        <v>2520421</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>307710</v>
+        <v>332758</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>42.48</v>
+        <v>49.48</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1311,22 +1311,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>40806</v>
+        <v>40694</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>39240</v>
+        <v>39283</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>787397</v>
+        <v>903849</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>136560</v>
+        <v>144847</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>19.3</v>
+        <v>22.21</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1340,22 +1340,22 @@
         <v>30</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>40613</v>
+        <v>40586</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>39338</v>
+        <v>39373</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>501408</v>
+        <v>568544</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>165135</v>
+        <v>182691</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>12.35</v>
+        <v>14.01</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1369,22 +1369,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>36059</v>
+        <v>36088</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>32331</v>
+        <v>32422</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1557070</v>
+        <v>1788652</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>180460</v>
+        <v>193794</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>43.18</v>
+        <v>49.56</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1398,22 +1398,22 @@
         <v>33</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>33420</v>
+        <v>33388</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>31500</v>
+        <v>31547</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>542791</v>
+        <v>639673</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>113989</v>
+        <v>128781</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>16.24</v>
+        <v>19.16</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1427,22 +1427,22 @@
         <v>30</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>31605</v>
+        <v>31657</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>30107</v>
+        <v>30144</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>514161</v>
+        <v>587969</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>120989</v>
+        <v>130394</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>16.27</v>
+        <v>18.57</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1456,22 +1456,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>30889</v>
+        <v>30895</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>28014</v>
+        <v>28066</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1182755</v>
+        <v>1364724</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>157691</v>
+        <v>170026</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>38.29</v>
+        <v>44.17</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1485,22 +1485,22 @@
         <v>33</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>30054</v>
+        <v>29900</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29307</v>
+        <v>29330</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>521172</v>
+        <v>608587</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>165069</v>
+        <v>181835</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>17.34</v>
+        <v>20.35</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1514,22 +1514,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>27332</v>
+        <v>27371</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>24623</v>
+        <v>24676</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1009932</v>
+        <v>1164252</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>116460</v>
+        <v>124156</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>36.95</v>
+        <v>42.54</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1543,22 +1543,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>19885</v>
+        <v>19928</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>17924</v>
+        <v>17992</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>677872</v>
+        <v>781135</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>75918</v>
+        <v>81417</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>34.09</v>
+        <v>39.2</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1572,22 +1572,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>18657</v>
+        <v>18647</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>16652</v>
+        <v>16690</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>786148</v>
+        <v>906631</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>99063</v>
+        <v>107036</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>42.14</v>
+        <v>48.62</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1601,22 +1601,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>18154</v>
+        <v>18208</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>16334</v>
+        <v>16384</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>467183</v>
+        <v>538313</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>59397</v>
+        <v>64819</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>25.73</v>
+        <v>29.56</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1630,22 +1630,22 @@
         <v>33</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>18098</v>
+        <v>18088</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>15967</v>
+        <v>16000</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>616799</v>
+        <v>719630</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>70840</v>
+        <v>77514</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>34.08</v>
+        <v>39.78</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1659,22 +1659,22 @@
         <v>30</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>17171</v>
+        <v>17149</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16404</v>
+        <v>16420</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>350361</v>
+        <v>402353</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>64503</v>
+        <v>68662</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>20.4</v>
+        <v>23.46</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1688,22 +1688,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>16457</v>
+        <v>16473</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>15128</v>
+        <v>15179</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>571948</v>
+        <v>657037</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>73425</v>
+        <v>79172</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>34.75</v>
+        <v>39.89</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1717,22 +1717,22 @@
         <v>26</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>16293</v>
+        <v>16333</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>15200</v>
+        <v>15236</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>305584</v>
+        <v>355702</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>57336</v>
+        <v>64246</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>18.76</v>
+        <v>21.78</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1746,22 +1746,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>16174</v>
+        <v>16206</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>14251</v>
+        <v>14284</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>542853</v>
+        <v>631986</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>71974</v>
+        <v>78712</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>33.56</v>
+        <v>39</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1775,22 +1775,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>16127</v>
+        <v>16149</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>15057</v>
+        <v>15101</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>440732</v>
+        <v>514754</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>70086</v>
+        <v>76598</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>27.33</v>
+        <v>31.88</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1804,22 +1804,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>15902</v>
+        <v>15960</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>14455</v>
+        <v>14496</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>568582</v>
+        <v>654813</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>51831</v>
+        <v>54600</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>35.76</v>
+        <v>41.03</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1833,22 +1833,22 @@
         <v>12</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>15837</v>
+        <v>15806</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>15375</v>
+        <v>15398</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>255366</v>
+        <v>304695</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>60618</v>
+        <v>66887</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>16.12</v>
+        <v>19.28</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1862,22 +1862,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>15645</v>
+        <v>15651</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>14247</v>
+        <v>14287</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>523805</v>
+        <v>617933</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>54050</v>
+        <v>58319</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>33.48</v>
+        <v>39.48</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1891,22 +1891,22 @@
         <v>30</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>13414</v>
+        <v>13443</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>13099</v>
+        <v>13132</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>142796</v>
+        <v>163660</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>32295</v>
+        <v>34555</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>10.65</v>
+        <v>12.17</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1920,22 +1920,22 @@
         <v>52</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>13060</v>
+        <v>13159</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>11625</v>
+        <v>11731</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>330212</v>
+        <v>387167</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>68500</v>
+        <v>76925</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>25.28</v>
+        <v>29.42</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1949,22 +1949,22 @@
         <v>23</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>12369</v>
+        <v>12455</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>10851</v>
+        <v>10892</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>402383</v>
+        <v>474363</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>51207</v>
+        <v>56303</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>32.53</v>
+        <v>38.09</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1978,22 +1978,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>12052</v>
+        <v>12133</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>10660</v>
+        <v>10700</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>405678</v>
+        <v>468474</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>37844</v>
+        <v>40500</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>33.66</v>
+        <v>38.61</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2007,22 +2007,22 @@
         <v>26</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10890</v>
+        <v>10873</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>10108</v>
+        <v>10118</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>257313</v>
+        <v>297692</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>47595</v>
+        <v>52768</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>23.63</v>
+        <v>27.38</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2036,22 +2036,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>10252</v>
+        <v>10231</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>9494</v>
+        <v>9512</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>201092</v>
+        <v>234718</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>29391</v>
+        <v>32594</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>19.61</v>
+        <v>22.94</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2065,22 +2065,22 @@
         <v>58</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>9584</v>
+        <v>9544</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>9225</v>
+        <v>9226</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>192263</v>
+        <v>228616</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>32631</v>
+        <v>37609</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>20.06</v>
+        <v>23.95</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2094,22 +2094,22 @@
         <v>30</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>9212</v>
+        <v>9213</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>8577</v>
+        <v>8591</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>218684</v>
+        <v>251227</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>29029</v>
+        <v>31417</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>23.74</v>
+        <v>27.27</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2123,22 +2123,22 @@
         <v>30</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>7860</v>
+        <v>7864</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>7595</v>
+        <v>7616</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>83339</v>
+        <v>95147</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>20985</v>
+        <v>23155</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2152,22 +2152,22 @@
         <v>12</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>7653</v>
+        <v>7625</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>7318</v>
+        <v>7327</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>128038</v>
+        <v>151973</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>30666</v>
+        <v>35145</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>16.73</v>
+        <v>19.93</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2181,22 +2181,22 @@
         <v>26</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>7160</v>
+        <v>7153</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>6770</v>
+        <v>6782</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>177685</v>
+        <v>205884</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>33698</v>
+        <v>37296</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>24.82</v>
+        <v>28.78</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2210,22 +2210,22 @@
         <v>33</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>6543</v>
+        <v>6528</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>6212</v>
+        <v>6228</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>143141</v>
+        <v>168247</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>20632</v>
+        <v>23407</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>21.88</v>
+        <v>25.77</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2239,22 +2239,22 @@
         <v>30</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>5595</v>
+        <v>5596</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>113802</v>
+        <v>132740</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>14353</v>
+        <v>15759</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>19.49</v>
+        <v>22.74</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2268,22 +2268,22 @@
         <v>30</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>5516</v>
+        <v>5526</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>5303</v>
+        <v>5314</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>97973</v>
+        <v>114750</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>17670</v>
+        <v>19036</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>17.76</v>
+        <v>20.77</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2297,22 +2297,22 @@
         <v>52</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>5420</v>
+        <v>5428</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>68705</v>
+        <v>83251</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>13266</v>
+        <v>15913</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12.68</v>
+        <v>15.34</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2326,22 +2326,22 @@
         <v>30</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>5229</v>
+        <v>5233</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>91629</v>
+        <v>105217</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>15460</v>
+        <v>16607</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>17.52</v>
+        <v>20.11</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,22 +2355,22 @@
         <v>30</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>5134</v>
+        <v>5144</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>4883</v>
+        <v>4893</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>114199</v>
+        <v>131455</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>15917</v>
+        <v>17107</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>22.24</v>
+        <v>25.56</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2384,22 +2384,22 @@
         <v>26</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>4972</v>
+        <v>4992</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>4721</v>
+        <v>4753</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>101487</v>
+        <v>119412</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>15158</v>
+        <v>17057</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>20.41</v>
+        <v>23.92</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2413,22 +2413,22 @@
         <v>52</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>4833</v>
+        <v>4825</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>4629</v>
+        <v>4636</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>81112</v>
+        <v>96374</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>13299</v>
+        <v>14768</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>16.78</v>
+        <v>19.97</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2442,22 +2442,22 @@
         <v>30</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>3796</v>
+        <v>3803</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>68692</v>
+        <v>79563</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8301</v>
+        <v>9103</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>17.39</v>
+        <v>20.13</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2471,22 +2471,22 @@
         <v>52</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3218</v>
+        <v>3207</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>50634</v>
+        <v>59145</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>8676</v>
+        <v>9811</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>15.73</v>
+        <v>18.44</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2500,22 +2500,22 @@
         <v>30</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>3004</v>
+        <v>3010</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2923</v>
+        <v>2931</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>48531</v>
+        <v>56613</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8828</v>
+        <v>9300</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.16</v>
+        <v>18.81</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,22 +2529,22 @@
         <v>12</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2943</v>
+        <v>2974</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2645</v>
+        <v>2678</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>53217</v>
+        <v>63213</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>9239</v>
+        <v>11062</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>18.08</v>
+        <v>21.26</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2558,22 +2558,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>2403</v>
+        <v>2410</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>36430</v>
+        <v>42761</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>7905</v>
+        <v>9343</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>14.31</v>
+        <v>16.81</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2587,22 +2587,22 @@
         <v>12</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>2494</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2359</v>
+        <v>2365</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>46765</v>
+        <v>56364</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>7957</v>
+        <v>9154</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>18.75</v>
+        <v>22.55</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2616,22 +2616,22 @@
         <v>33</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2471</v>
+        <v>2491</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2287</v>
+        <v>2292</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>47913</v>
+        <v>56947</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3985</v>
+        <v>4454</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>19.39</v>
+        <v>22.86</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2645,22 +2645,22 @@
         <v>33</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>2392</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>2319</v>
+        <v>2338</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>34448</v>
+        <v>40777</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4175</v>
+        <v>4832</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>14.4</v>
+        <v>16.99</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2674,22 +2674,22 @@
         <v>26</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2127</v>
+        <v>2135</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>38282</v>
+        <v>45262</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3065</v>
+        <v>3284</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>17.06</v>
+        <v>20.16</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2703,22 +2703,22 @@
         <v>30</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>65027</v>
+        <v>75090</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>8969</v>
+        <v>9596</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>29.09</v>
+        <v>33.57</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2732,22 +2732,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2187</v>
+        <v>2192</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2069</v>
+        <v>2083</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>48758</v>
+        <v>55673</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>6873</v>
+        <v>7739</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>22.29</v>
+        <v>25.4</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2761,22 +2761,22 @@
         <v>26</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>25651</v>
+        <v>29847</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3503</v>
+        <v>3799</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>12.74</v>
+        <v>14.85</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2790,22 +2790,22 @@
         <v>52</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1575</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>64899</v>
+        <v>75452</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>7950</v>
+        <v>8829</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>36.22</v>
+        <v>42.18</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2819,22 +2819,22 @@
         <v>30</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1512</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>21561</v>
+        <v>24172</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4434</v>
+        <v>4676</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>13.93</v>
+        <v>15.65</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2848,22 +2848,22 @@
         <v>14</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>45746</v>
+        <v>53725</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>3698</v>
+        <v>4021</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>30.18</v>
+        <v>35.25</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2877,22 +2877,22 @@
         <v>33</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1312</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>37732</v>
+        <v>44868</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2824</v>
+        <v>3093</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>25.74</v>
+        <v>30.84</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2906,22 +2906,22 @@
         <v>12</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1191</v>
+        <v>1196</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>41167</v>
+        <v>49016</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3438</v>
+        <v>3875</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>29.81</v>
+        <v>35.29</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2935,22 +2935,22 @@
         <v>14</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>68192</v>
+        <v>78759</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>5250</v>
+        <v>5787</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>53.65</v>
+        <v>61.58</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2964,22 +2964,22 @@
         <v>33</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>20927</v>
+        <v>24957</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1661</v>
+        <v>1846</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>17.41</v>
+        <v>20.71</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2993,22 +2993,22 @@
         <v>26</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>44336</v>
+        <v>52153</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3728</v>
+        <v>4315</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>38.52</v>
+        <v>45.27</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3022,22 +3022,22 @@
         <v>30</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>17002</v>
+        <v>19292</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2268</v>
+        <v>2435</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>15.56</v>
+        <v>17.55</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3051,22 +3051,22 @@
         <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>32489</v>
+        <v>37854</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>2435</v>
+        <v>2551</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>29.92</v>
+        <v>34.73</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3080,22 +3080,22 @@
         <v>33</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>17361</v>
+        <v>21008</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1490</v>
+        <v>1665</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>16.97</v>
+        <v>20.48</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3109,22 +3109,22 @@
         <v>26</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>940</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>32608</v>
+        <v>37347</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1305</v>
+        <v>1380</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>32.51</v>
+        <v>37.42</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3138,22 +3138,22 @@
         <v>52</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>36083</v>
+        <v>41011</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4904</v>
+        <v>5487</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>37.05</v>
+        <v>41.64</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,22 +3167,22 @@
         <v>26</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>876</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>23283</v>
+        <v>27376</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>2926</v>
+        <v>3211</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>24.51</v>
+        <v>28.94</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3196,22 +3196,22 @@
         <v>12</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>19935</v>
+        <v>24142</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1583</v>
+        <v>1846</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>21.83</v>
+        <v>26.21</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3225,22 +3225,22 @@
         <v>52</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>29994</v>
+        <v>34434</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4021</v>
+        <v>4546</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>33.51</v>
+        <v>38.22</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,22 +3254,22 @@
         <v>52</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>20030</v>
+        <v>24123</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>5856</v>
+        <v>7217</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>22.51</v>
+        <v>27.29</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3283,22 +3283,22 @@
         <v>33</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>10757</v>
+        <v>13446</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1054</v>
+        <v>1352</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>12.72</v>
+        <v>15.74</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3312,22 +3312,22 @@
         <v>30</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>794</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>23552</v>
+        <v>26931</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3819</v>
+        <v>4004</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>28.58</v>
+        <v>32.72</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3341,22 +3341,22 @@
         <v>52</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>23615</v>
+        <v>27882</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3383</v>
+        <v>4038</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>28.76</v>
+        <v>33.92</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3370,22 +3370,22 @@
         <v>30</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>8223</v>
+        <v>9348</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2068</v>
+        <v>2294</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>10.04</v>
+        <v>11.44</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3399,22 +3399,22 @@
         <v>33</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>19635</v>
+        <v>22956</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1832</v>
+        <v>1995</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>24.67</v>
+        <v>28.88</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3425,25 +3425,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>19354</v>
+        <v>32605</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3129</v>
+        <v>3007</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>25.23</v>
+        <v>41.59</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3454,25 +3454,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>767</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>731</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>23007</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>3700</v>
+      </c>
+      <c r="H90" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>752</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>721</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>9077</v>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>796</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>12.07</v>
-      </c>
       <c r="I90" s="0" t="n">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3486,22 +3486,22 @@
         <v>30</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>667</v>
+        <v>721</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>27674</v>
+        <v>10540</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>2766</v>
+        <v>865</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>36.85</v>
+        <v>13.96</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3515,22 +3515,22 @@
         <v>12</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>12976</v>
+        <v>15351</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1819</v>
+        <v>2144</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>17.49</v>
+        <v>20.58</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3544,22 +3544,22 @@
         <v>12</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>11499</v>
+        <v>13517</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1466</v>
+        <v>1554</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>18.31</v>
+        <v>21.7</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3573,22 +3573,22 @@
         <v>26</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>20230</v>
+        <v>23542</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1728</v>
+        <v>1872</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>33.06</v>
+        <v>38.4</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3602,22 +3602,22 @@
         <v>30</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>556</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>14729</v>
+        <v>17593</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>894</v>
+        <v>968</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>25.71</v>
+        <v>30.6</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3634,19 +3634,19 @@
         <v>558</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>7121</v>
+        <v>8523</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1063</v>
+        <v>1339</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>12.76</v>
+        <v>15.27</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3660,22 +3660,22 @@
         <v>52</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>506</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>9129</v>
+        <v>10901</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>942</v>
+        <v>1045</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>16.97</v>
+        <v>20.3</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3689,22 +3689,22 @@
         <v>52</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>5016</v>
+        <v>5931</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>9.57</v>
+        <v>11.36</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3718,22 +3718,22 @@
         <v>12</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>5547</v>
+        <v>6491</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>946</v>
+        <v>1098</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>11.3</v>
+        <v>13.27</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3747,22 +3747,22 @@
         <v>26</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>18915</v>
+        <v>22180</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1863</v>
+        <v>2100</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>40.77</v>
+        <v>47.9</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3779,19 +3779,19 @@
         <v>445</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>9558</v>
+        <v>11408</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>659</v>
+        <v>696</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>21.48</v>
+        <v>25.64</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3805,22 +3805,22 @@
         <v>52</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>7890</v>
+        <v>8757</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>19.01</v>
+        <v>21.2</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3834,22 +3834,22 @@
         <v>26</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>348</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5684</v>
+        <v>6744</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>14.14</v>
+        <v>16.73</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3863,22 +3863,22 @@
         <v>26</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>16871</v>
+        <v>19869</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1730</v>
+        <v>1907</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>45.35</v>
+        <v>52.84</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3892,22 +3892,22 @@
         <v>52</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>12347</v>
+        <v>13964</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1426</v>
+        <v>1567</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>34.3</v>
+        <v>38.68</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3921,22 +3921,22 @@
         <v>52</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>8112</v>
+        <v>9469</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>22.85</v>
+        <v>26.52</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3956,16 +3956,16 @@
         <v>316</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5586</v>
+        <v>6600</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>15.87</v>
+        <v>18.75</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3976,25 +3976,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>6043</v>
+        <v>7343</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>281</v>
+        <v>657</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>17.52</v>
+        <v>21.1</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4005,25 +4005,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>6206</v>
+        <v>9229</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>556</v>
+        <v>655</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>17.99</v>
+        <v>26.83</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>127</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4034,25 +4034,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>7660</v>
+        <v>7568</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>597</v>
+        <v>298</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>22.53</v>
+        <v>22.06</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4066,22 +4066,22 @@
         <v>52</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>316</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>5229</v>
+        <v>6108</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>568</v>
+        <v>649</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>16.14</v>
+        <v>18.79</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4095,22 +4095,22 @@
         <v>52</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>301</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>8111</v>
+        <v>9275</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1110</v>
+        <v>1233</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>25.03</v>
+        <v>28.89</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4124,22 +4124,22 @@
         <v>30</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>308</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>14112</v>
+        <v>16665</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>814</v>
+        <v>862</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>44.66</v>
+        <v>52.57</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4150,25 +4150,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>5410</v>
+        <v>11861</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>360</v>
+        <v>1076</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>19.05</v>
+        <v>41.47</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4179,25 +4179,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>10289</v>
+        <v>6603</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>995</v>
+        <v>388</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>36.36</v>
+        <v>23.41</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4217,16 +4217,16 @@
         <v>264</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>6139</v>
+        <v>7230</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>641</v>
+        <v>748</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>22.32</v>
+        <v>26.29</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,22 +4240,22 @@
         <v>52</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>5387</v>
+        <v>6320</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>20.72</v>
+        <v>24.4</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4269,22 +4269,22 @@
         <v>26</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>8884</v>
+        <v>10476</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>35.25</v>
+        <v>41.74</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4295,25 +4295,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3686</v>
+        <v>7834</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>217</v>
+        <v>592</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>15.89</v>
+        <v>34.21</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4324,25 +4324,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>6570</v>
+        <v>4437</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>540</v>
+        <v>238</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>28.82</v>
+        <v>19.38</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4356,22 +4356,22 @@
         <v>33</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>3322</v>
+        <v>3942</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>15.03</v>
+        <v>17.76</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4382,25 +4382,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>200</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>6653</v>
+        <v>3734</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>855</v>
+        <v>572</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>32.3</v>
+        <v>18.04</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4411,7 +4411,7 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>206</v>
@@ -4420,16 +4420,16 @@
         <v>200</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>3339</v>
+        <v>7729</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>549</v>
+        <v>992</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>16.21</v>
+        <v>37.52</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4443,22 +4443,22 @@
         <v>12</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>7944</v>
+        <v>8991</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>40.12</v>
+        <v>45.18</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4472,22 +4472,22 @@
         <v>52</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>159</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>5792</v>
+        <v>6315</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>33.87</v>
+        <v>37.15</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4504,19 +4504,19 @@
         <v>161</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>5218</v>
+        <v>6054</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>704</v>
+        <v>772</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>32.41</v>
+        <v>37.6</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4533,19 +4533,19 @@
         <v>160</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>9045</v>
+        <v>3580</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>56.53</v>
+        <v>22.38</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4562,19 +4562,19 @@
         <v>159</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>2982</v>
+        <v>10001</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>302</v>
+        <v>616</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>18.75</v>
+        <v>62.9</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4588,22 +4588,22 @@
         <v>23</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>3323</v>
+        <v>3918</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>22.15</v>
+        <v>25.95</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4617,19 +4617,19 @@
         <v>52</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>3296</v>
+        <v>3831</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>22.89</v>
+        <v>26.79</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>107</v>
@@ -4646,22 +4646,22 @@
         <v>52</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3161</v>
+        <v>3121</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>22.1</v>
+        <v>22.13</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4675,22 +4675,22 @@
         <v>26</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>4973</v>
+        <v>5808</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>35.52</v>
+        <v>42.09</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4704,22 +4704,22 @@
         <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>120</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>4744</v>
+        <v>5548</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>34.63</v>
+        <v>40.2</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4739,16 +4739,16 @@
         <v>120</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>2970</v>
+        <v>3414</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>22.16</v>
+        <v>25.48</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4762,22 +4762,22 @@
         <v>12</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>106</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>1810</v>
+        <v>2152</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>14.25</v>
+        <v>16.43</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4797,16 +4797,16 @@
         <v>113</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>5363</v>
+        <v>5389</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>43.6</v>
+        <v>43.81</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4820,22 +4820,22 @@
         <v>52</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>4056</v>
+        <v>4883</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>33.52</v>
+        <v>40.02</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4855,16 +4855,16 @@
         <v>105</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>3923</v>
+        <v>4740</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>33.53</v>
+        <v>40.51</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,22 +4878,22 @@
         <v>52</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>2682</v>
+        <v>3117</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>23.12</v>
+        <v>26.64</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,22 +4907,22 @@
         <v>12</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>106</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2123</v>
+        <v>2393</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>18.3</v>
+        <v>20.81</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4942,16 +4942,16 @@
         <v>109</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>3181</v>
+        <v>3590</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>28.15</v>
+        <v>31.77</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4965,22 +4965,22 @@
         <v>26</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>76</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>2181</v>
+        <v>2563</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>20.97</v>
+        <v>24.41</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -5000,16 +5000,16 @@
         <v>84</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1506</v>
+        <v>1748</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>14.76</v>
+        <v>17.14</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5029,16 +5029,16 @@
         <v>90</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>5443</v>
+        <v>6496</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>54.43</v>
+        <v>64.96</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5055,19 +5055,19 @@
         <v>98</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>4718</v>
+        <v>5728</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>48.14</v>
+        <v>58.45</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5078,25 +5078,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2729</v>
+        <v>2705</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>27.85</v>
+        <v>28.18</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5107,25 +5107,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>96</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2370</v>
+        <v>3033</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>24.69</v>
+        <v>31.59</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5145,16 +5145,16 @@
         <v>85</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1089</v>
+        <v>1278</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>11.84</v>
+        <v>13.89</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5168,22 +5168,22 @@
         <v>12</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>80</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>831</v>
+        <v>966</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>9.78</v>
+        <v>11.23</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5203,16 +5203,16 @@
         <v>78</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1398</v>
+        <v>1606</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>17.05</v>
+        <v>19.59</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5232,16 +5232,16 @@
         <v>74</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1653</v>
+        <v>1953</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>20.16</v>
+        <v>23.82</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5255,22 +5255,22 @@
         <v>26</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>66</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2999</v>
+        <v>3543</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>39.99</v>
+        <v>46.62</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5284,22 +5284,22 @@
         <v>23</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>71</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>3306</v>
+        <v>3941</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>44.68</v>
+        <v>51.86</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5319,16 +5319,16 @@
         <v>68</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>3315</v>
+        <v>3863</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>46.04</v>
+        <v>53.65</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5348,16 +5348,16 @@
         <v>55</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1522</v>
+        <v>1722</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>25.37</v>
+        <v>28.7</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5371,22 +5371,22 @@
         <v>26</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>52</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>995</v>
+        <v>1227</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>17.16</v>
+        <v>21.53</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5406,16 +5406,16 @@
         <v>41</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1514</v>
+        <v>1704</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>27.04</v>
+        <v>30.43</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5435,16 +5435,16 @@
         <v>50</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2656</v>
+        <v>3100</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>49.19</v>
+        <v>57.41</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5464,16 +5464,16 @@
         <v>48</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>772</v>
+        <v>918</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>15.14</v>
+        <v>18</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5487,22 +5487,22 @@
         <v>52</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>44</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>746</v>
+        <v>864</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>16.22</v>
+        <v>18.38</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5522,16 +5522,16 @@
         <v>41</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1547</v>
+        <v>1844</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>34.38</v>
+        <v>40.98</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5545,22 +5545,22 @@
         <v>52</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2569</v>
+        <v>2838</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>58.39</v>
+        <v>63.07</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5580,16 +5580,16 @@
         <v>42</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1543</v>
+        <v>1856</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>35.07</v>
+        <v>42.18</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5609,16 +5609,16 @@
         <v>38</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>11.81</v>
+        <v>14</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5632,22 +5632,22 @@
         <v>23</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>625</v>
+        <v>712</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>16.03</v>
+        <v>17.8</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5667,16 +5667,16 @@
         <v>34</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1131</v>
+        <v>1323</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>29.76</v>
+        <v>34.82</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5696,16 +5696,16 @@
         <v>31</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>893</v>
+        <v>1041</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>24.81</v>
+        <v>28.92</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5716,25 +5716,25 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>35</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>2587</v>
+        <v>512</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>73.91</v>
+        <v>14.63</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5751,19 +5751,19 @@
         <v>34</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>439</v>
+        <v>802</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>12.91</v>
+        <v>23.59</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5777,22 +5777,22 @@
         <v>52</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>684</v>
+        <v>1020</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>20.12</v>
+        <v>30.91</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5803,25 +5803,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>863</v>
+        <v>2898</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>26.15</v>
+        <v>87.82</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5841,16 +5841,16 @@
         <v>26</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>839</v>
+        <v>961</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>26.22</v>
+        <v>30.03</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5870,16 +5870,16 @@
         <v>25</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>427</v>
+        <v>508</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>13.77</v>
+        <v>16.39</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5899,16 +5899,16 @@
         <v>29</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>729</v>
+        <v>823</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>23.52</v>
+        <v>26.55</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5928,16 +5928,16 @@
         <v>27</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>822</v>
+        <v>918</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>26.52</v>
+        <v>29.61</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5951,22 +5951,22 @@
         <v>12</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>18.47</v>
+        <v>20.26</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5977,7 +5977,7 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>27</v>
@@ -5986,16 +5986,16 @@
         <v>26</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>362</v>
+        <v>172</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>13.41</v>
+        <v>6.37</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6006,7 +6006,7 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>27</v>
@@ -6015,16 +6015,16 @@
         <v>26</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="G178" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H178" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H178" s="0" t="n">
-        <v>5.52</v>
-      </c>
       <c r="I178" s="0" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6044,16 +6044,16 @@
         <v>25</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>527</v>
+        <v>661</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>20.27</v>
+        <v>25.42</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6073,16 +6073,16 @@
         <v>22</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>13.39</v>
+        <v>16.04</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6096,22 +6096,22 @@
         <v>52</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>821</v>
+        <v>698</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>37.32</v>
+        <v>30.35</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6131,16 +6131,16 @@
         <v>15</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>18.5</v>
+        <v>21.45</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6151,25 +6151,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>731</v>
+        <v>921</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>34.81</v>
+        <v>41.86</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6180,7 +6180,7 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>21</v>
@@ -6189,16 +6189,16 @@
         <v>20</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>628</v>
+        <v>851</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>29.9</v>
+        <v>40.52</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6218,16 +6218,16 @@
         <v>21</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>15.43</v>
+        <v>18.1</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6247,16 +6247,16 @@
         <v>20</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>22</v>
+        <v>24.15</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6276,16 +6276,16 @@
         <v>17</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>22.89</v>
+        <v>27.74</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6305,16 +6305,16 @@
         <v>17</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>611</v>
+        <v>718</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>33.94</v>
+        <v>39.89</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6334,16 +6334,16 @@
         <v>16</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>14.13</v>
+        <v>17.63</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6363,16 +6363,16 @@
         <v>15</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>757</v>
+        <v>896</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>50.47</v>
+        <v>59.73</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6386,22 +6386,22 @@
         <v>26</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>4.93</v>
+        <v>5.43</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6412,25 +6412,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>6.07</v>
+        <v>12.43</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6441,25 +6441,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>10.71</v>
+        <v>7.15</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6479,16 +6479,16 @@
         <v>12</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>19.62</v>
+        <v>23.62</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6505,19 +6505,19 @@
         <v>11</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>21.09</v>
+        <v>24.55</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6534,19 +6534,19 @@
         <v>11</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>22.36</v>
+        <v>23.82</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6557,7 +6557,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>10</v>
@@ -6566,16 +6566,16 @@
         <v>10</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>23.3</v>
+        <v>35.4</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6595,16 +6595,16 @@
         <v>9</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>15</v>
+        <v>17.6</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6615,7 +6615,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>10</v>
@@ -6624,16 +6624,16 @@
         <v>10</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>30.4</v>
+        <v>26.1</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6653,16 +6653,16 @@
         <v>8</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>7.22</v>
+        <v>7.56</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6673,25 +6673,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>1254</v>
+        <v>477</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>156.75</v>
+        <v>59.63</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6711,16 +6711,16 @@
         <v>8</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>16.63</v>
+        <v>19.5</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6731,25 +6731,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E203" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G203" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F203" s="0" t="n">
-        <v>406</v>
-      </c>
-      <c r="G203" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="H203" s="0" t="n">
-        <v>50.75</v>
+        <v>171.63</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6769,16 +6769,16 @@
         <v>7</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>27.43</v>
+        <v>31.71</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6789,7 +6789,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>6</v>
@@ -6798,16 +6798,16 @@
         <v>6</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>49.17</v>
+        <v>22.5</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6818,7 +6818,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>6</v>
@@ -6827,16 +6827,16 @@
         <v>6</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>573</v>
+        <v>336</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>95.5</v>
+        <v>56</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6856,16 +6856,16 @@
         <v>6</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6876,7 +6876,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>6</v>
@@ -6885,16 +6885,16 @@
         <v>6</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>56</v>
+        <v>616</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>9.33</v>
+        <v>102.67</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6905,7 +6905,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>4</v>
@@ -6914,16 +6914,16 @@
         <v>4</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>9.5</v>
+        <v>22.25</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6934,7 +6934,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>4</v>
@@ -6943,16 +6943,16 @@
         <v>4</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>19.5</v>
+        <v>10.75</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6963,7 +6963,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>4</v>
@@ -6972,16 +6972,16 @@
         <v>4</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6992,7 +6992,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>4</v>
@@ -7001,13 +7001,13 @@
         <v>4</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>9.25</v>
+        <v>23.5</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>25</v>
@@ -7021,7 +7021,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>4</v>
@@ -7030,16 +7030,16 @@
         <v>4</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>21.5</v>
+        <v>9.75</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7050,7 +7050,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>3</v>
@@ -7059,16 +7059,16 @@
         <v>3</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>36.33</v>
+        <v>76.67</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7088,16 +7088,16 @@
         <v>3</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7117,16 +7117,16 @@
         <v>3</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>28.33</v>
+        <v>37.33</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7137,7 +7137,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>3</v>
@@ -7146,16 +7146,16 @@
         <v>3</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>11.67</v>
+        <v>40</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7166,7 +7166,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
@@ -7175,13 +7175,13 @@
         <v>3</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>67.33</v>
+        <v>13.67</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>11</v>
@@ -7204,16 +7204,16 @@
         <v>2</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7233,16 +7233,16 @@
         <v>2</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7253,25 +7253,25 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7291,16 +7291,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7311,25 +7311,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7340,25 +7340,25 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7369,7 +7369,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1</v>
@@ -7378,16 +7378,16 @@
         <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7407,16 +7407,16 @@
         <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" s="0" t="n">
         <v>16</v>
-      </c>
-      <c r="I226" s="0" t="n">
-        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7427,7 +7427,7 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>1</v>
@@ -7436,13 +7436,13 @@
         <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>17</v>
@@ -7465,16 +7465,16 @@
         <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7494,16 +7494,16 @@
         <v>1</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7514,7 +7514,7 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>1</v>
@@ -7523,16 +7523,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7543,25 +7543,25 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7581,16 +7581,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
